--- a/Grafo/Modelo circuito.xlsx
+++ b/Grafo/Modelo circuito.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NECSOFT\Desktop\deteccion de fallas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NECSOFT\Desktop\deteccion de fallas\TRADUCCION CODIGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="37">
   <si>
     <t>Ext 1</t>
   </si>
@@ -105,6 +105,36 @@
   </si>
   <si>
     <t>RamaB2Abajo</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>jajaja</t>
+  </si>
+  <si>
+    <t>ABAJO</t>
+  </si>
+  <si>
+    <t>Z1000</t>
+  </si>
+  <si>
+    <t>Otra rama</t>
+  </si>
+  <si>
+    <t>MASABAJO</t>
+  </si>
+  <si>
+    <t>QUE PUTAS</t>
+  </si>
+  <si>
+    <t>YYYYY</t>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>HHHHHH</t>
   </si>
 </sst>
 </file>
@@ -1225,13 +1255,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1371,11 +1404,11 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1391,7 +1424,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1407,7 +1440,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1530,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,6 +1567,126 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
